--- a/bet/林总.xlsx
+++ b/bet/林总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,23 +54,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>南美自由杯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿特拉斯 VS 米内罗竞技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布莱顿独赢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米内罗竞技+0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>布莱顿 VS 赫德斯菲尔德</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>南美自由杯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿特拉斯 VS 米内罗竞技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布莱顿独赢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>米内罗竞技+0.5</t>
+    <t>阿甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙兰迪阿森纳 VS 纽维尔斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙兰迪阿森纳+0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +90,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +108,13 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -121,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -137,6 +156,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -480,57 +502,84 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
-        <v>42108.922800925924</v>
+        <v>42107.931192129632</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2">
         <v>1.5</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>500</v>
       </c>
-      <c r="G2" s="1">
-        <v>500</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="G2" s="2">
+        <v>750</v>
+      </c>
+      <c r="H2" s="6">
         <f>G2-F2</f>
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
-        <v>42109.929363425923</v>
+        <v>42108.922800925924</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" s="1">
-        <v>1.4750000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="F3" s="1">
         <v>500</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H3" s="1">
         <f>G3-F3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>42109.929363425923</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>500</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>G4-F4</f>
         <v>-500</v>
       </c>
     </row>

--- a/bet/林总.xlsx
+++ b/bet/林总.xlsx
@@ -1,123 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="20370" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>联赛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>队伍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>玩法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>赔率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>投入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>奖金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>盈亏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿甲</t>
+  </si>
+  <si>
+    <t>沙兰迪阿森纳 VS 纽维尔斯</t>
+  </si>
+  <si>
+    <t>沙兰迪阿森纳+0.5</t>
   </si>
   <si>
     <t>英冠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布莱顿 VS 赫德斯菲尔德</t>
+  </si>
+  <si>
+    <t>布莱顿独赢</t>
   </si>
   <si>
     <t>南美自由杯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>阿特拉斯 VS 米内罗竞技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布莱顿独赢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>米内罗竞技+0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布莱顿 VS 赫德斯菲尔德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙兰迪阿森纳 VS 纽维尔斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沙兰迪阿森纳+0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西甲</t>
+  </si>
+  <si>
+    <t>勒万特 VS 西班牙人</t>
+  </si>
+  <si>
+    <t>西班牙人+0.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1" tint="0.249977111117893"/>
+      <color indexed="63"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,40 +130,55 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -220,71 +228,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -417,8 +425,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -454,74 +462,116 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="22.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
-        <v>42107.931192129632</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2">
+    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="A2" s="5">
+        <v>42107.9311921296</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
         <v>1.5</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>500</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>750</v>
       </c>
       <c r="H2" s="6">
@@ -529,89 +579,117 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
-        <v>42108.922800925924</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="5">
+        <v>42108.9228009259</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>1.5</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>500</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>500</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <f>G3-F3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
-        <v>42109.929363425923</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.4750000000000001</v>
-      </c>
-      <c r="F4" s="1">
+    <row r="4" spans="1:8">
+      <c r="A4" s="5">
+        <v>42109.9293634259</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.475</v>
+      </c>
+      <c r="F4" s="3">
         <v>500</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <f>G4-F4</f>
         <v>-500</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5">
+        <v>42111.9381944444</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.425</v>
+      </c>
+      <c r="F5" s="3">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/bet/林总.xlsx
+++ b/bet/林总.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20370" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>日期</t>
   </si>
@@ -81,14 +81,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -108,8 +102,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -130,27 +132,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -170,15 +157,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -477,6 +469,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -509,15 +502,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="3" customWidth="1"/>
@@ -526,7 +518,7 @@
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -552,9 +544,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
-        <v>42107.9311921296</v>
+        <v>42107.931192129603</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -579,9 +571,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
-        <v>42108.9228009259</v>
+        <v>42108.922800925902</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
@@ -606,9 +598,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
-        <v>42109.9293634259</v>
+        <v>42109.929363425901</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
@@ -620,7 +612,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="3">
-        <v>1.475</v>
+        <v>1.4750000000000001</v>
       </c>
       <c r="F4" s="3">
         <v>500</v>
@@ -633,9 +625,9 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
-        <v>42111.9381944444</v>
+        <v>42111.938194444403</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
@@ -652,44 +644,45 @@
       <c r="F5" s="3">
         <v>500</v>
       </c>
+      <c r="G5" s="3">
+        <v>712.5</v>
+      </c>
+      <c r="H5" s="7">
+        <f>G5-F5</f>
+        <v>212.5</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/bet/林总.xlsx
+++ b/bet/林总.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20370" windowHeight="7950"/>
+    <workbookView windowWidth="20370" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>日期</t>
   </si>
@@ -76,13 +76,46 @@
   </si>
   <si>
     <t>西班牙人+0.5</t>
+  </si>
+  <si>
+    <t>J联赛</t>
+  </si>
+  <si>
+    <t>浦和红钻 VS 横滨水手</t>
+  </si>
+  <si>
+    <t>浦和红钻 0</t>
+  </si>
+  <si>
+    <t>澳超</t>
+  </si>
+  <si>
+    <t>珀斯光荣 VS 墨尔本城</t>
+  </si>
+  <si>
+    <t>墨尔本城+0.5</t>
+  </si>
+  <si>
+    <t>法甲</t>
+  </si>
+  <si>
+    <t>里尔 VS 波尔多</t>
+  </si>
+  <si>
+    <t>波尔多+0.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -102,16 +135,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -132,8 +162,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -157,20 +202,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -469,18 +512,17 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -502,14 +544,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="22.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="3" customWidth="1"/>
@@ -518,7 +561,7 @@
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -544,9 +587,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="5">
-        <v>42107.931192129603</v>
+        <v>42107.9311921296</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -567,13 +610,13 @@
         <v>750</v>
       </c>
       <c r="H2" s="6">
-        <f>G2-F2</f>
+        <f t="shared" ref="H2:H7" si="0">G2-F2</f>
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="5">
-        <v>42108.922800925902</v>
+        <v>42108.9228009259</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
@@ -598,9 +641,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="5">
-        <v>42109.929363425901</v>
+        <v>42109.9293634259</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
@@ -612,7 +655,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="3">
-        <v>1.4750000000000001</v>
+        <v>1.475</v>
       </c>
       <c r="F4" s="3">
         <v>500</v>
@@ -625,9 +668,9 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="5">
-        <v>42111.938194444403</v>
+        <v>42111.9381944444</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
@@ -647,42 +690,134 @@
       <c r="G5" s="3">
         <v>712.5</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <f>G5-F5</f>
         <v>212.5</v>
       </c>
     </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5">
+        <v>42112.63125</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="F6" s="3">
+        <v>500</v>
+      </c>
+      <c r="G6" s="3">
+        <v>725</v>
+      </c>
+      <c r="H6" s="6">
+        <f>G6-F6</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5">
+        <v>42113.5833333333</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="F7" s="3">
+        <v>500</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <f>G7-F7</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5">
+        <v>42113.7951388889</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.62</v>
+      </c>
+      <c r="F8" s="3">
+        <v>500</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8">
+      <c r="H25" s="7">
+        <f>SUM(H2:H24)</f>
+        <v>-812.5</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/bet/林总.xlsx
+++ b/bet/林总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7950"/>
+    <workbookView windowWidth="20400" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>日期</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>波尔多+0.5</t>
+  </si>
+  <si>
+    <t>日联杯</t>
+  </si>
+  <si>
+    <t>清水心跳 VS 仙台维加泰</t>
+  </si>
+  <si>
+    <t>清水心跳 0</t>
   </si>
 </sst>
 </file>
@@ -110,9 +119,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
@@ -182,7 +191,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,6 +212,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -549,7 +561,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -775,10 +787,42 @@
         <v>-500</v>
       </c>
     </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="5">
+        <v>42114.7951388889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5">
+        <v>42116.7013888889</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1.875</v>
+      </c>
+      <c r="F10" s="3">
+        <v>500</v>
+      </c>
+      <c r="G10" s="3">
+        <v>937.5</v>
+      </c>
+      <c r="H10" s="8">
+        <f>G10-F10</f>
+        <v>437.5</v>
+      </c>
+    </row>
     <row r="25" spans="8:8">
       <c r="H25" s="7">
         <f>SUM(H2:H24)</f>
-        <v>-812.5</v>
+        <v>-375</v>
       </c>
     </row>
   </sheetData>

--- a/bet/林总.xlsx
+++ b/bet/林总.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>日期</t>
   </si>
@@ -112,19 +112,49 @@
   </si>
   <si>
     <t>清水心跳 0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">特温特后备 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>VS 阿贾克斯后备</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>特温特后备队+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷乙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -149,8 +179,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -171,27 +209,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -217,15 +240,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -524,6 +552,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -556,24 +585,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.875" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -599,9 +627,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="5">
-        <v>42107.9311921296</v>
+        <v>42107.931192129603</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -622,13 +650,13 @@
         <v>750</v>
       </c>
       <c r="H2" s="6">
-        <f t="shared" ref="H2:H7" si="0">G2-F2</f>
+        <f t="shared" ref="H2" si="0">G2-F2</f>
         <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5">
-        <v>42108.9228009259</v>
+        <v>42108.922800925902</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
@@ -655,7 +683,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5">
-        <v>42109.9293634259</v>
+        <v>42109.929363425901</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
@@ -667,7 +695,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="3">
-        <v>1.475</v>
+        <v>1.4750000000000001</v>
       </c>
       <c r="F4" s="3">
         <v>500</v>
@@ -682,7 +710,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5">
-        <v>42111.9381944444</v>
+        <v>42111.938194444403</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
@@ -709,7 +737,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5">
-        <v>42112.63125</v>
+        <v>42112.631249999999</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>20</v>
@@ -736,7 +764,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5">
-        <v>42113.5833333333</v>
+        <v>42113.583333333299</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>23</v>
@@ -763,7 +791,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5">
-        <v>42113.7951388889</v>
+        <v>42113.795138888898</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>26</v>
@@ -787,14 +815,36 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:8">
       <c r="A9" s="5">
-        <v>42114.7951388889</v>
+        <v>42114.926087962966</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="F9" s="3">
+        <v>557</v>
+      </c>
+      <c r="G9" s="3">
+        <v>863.35</v>
+      </c>
+      <c r="H9" s="8">
+        <f>G9-F9</f>
+        <v>306.35000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5">
-        <v>42116.7013888889</v>
+        <v>42116.701388888898</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>29</v>
@@ -822,46 +872,40 @@
     <row r="25" spans="8:8">
       <c r="H25" s="7">
         <f>SUM(H2:H24)</f>
-        <v>-375</v>
+        <v>-68.649999999999977</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/bet/林总.xlsx
+++ b/bet/林总.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8370"/>
+    <workbookView windowWidth="20400" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>日期</t>
   </si>
@@ -30,6 +30,12 @@
     <t>玩法</t>
   </si>
   <si>
+    <t>大小球盘口</t>
+  </si>
+  <si>
+    <t>赛果</t>
+  </si>
+  <si>
     <t>赔率</t>
   </si>
   <si>
@@ -105,16 +111,16 @@
     <t>波尔多+0.5</t>
   </si>
   <si>
-    <t>日联杯</t>
-  </si>
-  <si>
-    <t>清水心跳 VS 仙台维加泰</t>
-  </si>
-  <si>
-    <t>清水心跳 0</t>
+    <t>荷乙</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">特温特后备 </t>
     </r>
     <r>
@@ -122,15 +128,19 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>VS 阿贾克斯后备</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>特温特后备队+</t>
     </r>
     <r>
@@ -138,22 +148,43 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0.5</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>荷乙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日联杯</t>
+  </si>
+  <si>
+    <t>清水心跳 VS 仙台维加泰</t>
+  </si>
+  <si>
+    <t>清水心跳 0</t>
+  </si>
+  <si>
+    <t>法乙</t>
+  </si>
+  <si>
+    <t>拉瓦尔 VS 阿雅克肖GFCA</t>
+  </si>
+  <si>
+    <t>拉瓦尔 +0.5</t>
+  </si>
+  <si>
+    <t>0-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -169,6 +200,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -179,16 +216,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -209,8 +238,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -234,26 +278,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -552,7 +594,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -585,11 +626,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -598,10 +640,12 @@
     <col min="2" max="2" width="14.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="26.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.875" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="3"/>
+    <col min="5" max="5" width="14.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -626,286 +670,333 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="5">
-        <v>42107.931192129603</v>
+        <v>42107.9311921296</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1">
         <v>1.5</v>
       </c>
-      <c r="F2" s="1">
+      <c r="H2" s="1">
         <v>500</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2" s="1">
         <v>750</v>
       </c>
-      <c r="H2" s="6">
-        <f t="shared" ref="H2" si="0">G2-F2</f>
+      <c r="J2" s="8">
+        <f t="shared" ref="J2:J7" si="0">I2-H2</f>
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" s="5">
-        <v>42108.922800925902</v>
+        <v>42108.9228009259</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3">
         <v>1.5</v>
       </c>
-      <c r="F3" s="3">
+      <c r="H3" s="3">
         <v>500</v>
       </c>
-      <c r="G3" s="3">
+      <c r="I3" s="3">
         <v>500</v>
       </c>
-      <c r="H3" s="3">
-        <f>G3-F3</f>
+      <c r="J3" s="3">
+        <f>I3-H3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" s="5">
-        <v>42109.929363425901</v>
+        <v>42109.9293634259</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1.4750000000000001</v>
-      </c>
-      <c r="F4" s="3">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.475</v>
+      </c>
+      <c r="H4" s="3">
         <v>500</v>
       </c>
-      <c r="G4" s="3">
+      <c r="I4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="3">
-        <f>G4-F4</f>
+      <c r="J4" s="3">
+        <f>I4-H4</f>
         <v>-500</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" s="5">
-        <v>42111.938194444403</v>
+        <v>42111.9381944444</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="3">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3">
         <v>1.425</v>
       </c>
-      <c r="F5" s="3">
+      <c r="H5" s="3">
         <v>500</v>
       </c>
-      <c r="G5" s="3">
+      <c r="I5" s="3">
         <v>712.5</v>
       </c>
-      <c r="H5" s="6">
-        <f>G5-F5</f>
+      <c r="J5" s="8">
+        <f>I5-H5</f>
         <v>212.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6" s="5">
-        <v>42112.631249999999</v>
+        <v>42112.63125</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="3">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3">
         <v>1.45</v>
       </c>
-      <c r="F6" s="3">
+      <c r="H6" s="3">
         <v>500</v>
       </c>
-      <c r="G6" s="3">
+      <c r="I6" s="3">
         <v>725</v>
       </c>
-      <c r="H6" s="6">
-        <f>G6-F6</f>
+      <c r="J6" s="8">
+        <f>I6-H6</f>
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7" s="5">
-        <v>42113.583333333299</v>
+        <v>42113.5833333333</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="3">
+        <v>27</v>
+      </c>
+      <c r="G7" s="3">
         <v>1.55</v>
       </c>
-      <c r="F7" s="3">
+      <c r="H7" s="3">
         <v>500</v>
       </c>
-      <c r="G7" s="3">
+      <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="H7" s="7">
-        <f>G7-F7</f>
+      <c r="J7" s="9">
+        <f>I7-H7</f>
         <v>-500</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8" s="5">
-        <v>42113.795138888898</v>
+        <v>42113.7951388889</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="3">
+        <v>30</v>
+      </c>
+      <c r="G8" s="3">
         <v>1.62</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10">
       <c r="A9" s="5">
-        <v>42114.926087962966</v>
-      </c>
-      <c r="B9" s="9" t="s">
+        <v>42114.926087963</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="H9" s="3">
+        <v>557</v>
+      </c>
+      <c r="I9" s="3">
+        <v>863.35</v>
+      </c>
+      <c r="J9" s="8">
+        <f>I9-H9</f>
+        <v>306.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5">
+        <v>42116.7013888889</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1.55</v>
-      </c>
-      <c r="F9" s="3">
-        <v>557</v>
-      </c>
-      <c r="G9" s="3">
-        <v>863.35</v>
-      </c>
-      <c r="H9" s="8">
-        <f>G9-F9</f>
-        <v>306.35000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="5">
-        <v>42116.701388888898</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="3">
+        <v>36</v>
+      </c>
+      <c r="G10" s="3">
         <v>1.875</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>937.5</v>
       </c>
-      <c r="H10" s="8">
-        <f>G10-F10</f>
+      <c r="J10" s="8">
+        <f>I10-H10</f>
         <v>437.5</v>
       </c>
     </row>
-    <row r="25" spans="8:8">
-      <c r="H25" s="7">
-        <f>SUM(H2:H24)</f>
-        <v>-68.649999999999977</v>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5">
+        <v>42119.9243055556</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="H11" s="3">
+        <v>500</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <f>I11-H11</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="25" spans="10:10">
+      <c r="J25" s="9">
+        <f>SUM(J2:J24)</f>
+        <v>-568.65</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/bet/林总.xlsx
+++ b/bet/林总.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>日期</t>
   </si>
@@ -174,18 +174,64 @@
   <si>
     <t>0-2</t>
   </si>
+  <si>
+    <r>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联赛</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>松本山雅FC VS 仙台维嘉泰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>松本山雅F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C或平局</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-0</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -216,8 +262,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -238,27 +299,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -287,15 +333,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -594,6 +648,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -626,12 +681,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -645,7 +699,7 @@
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -677,9 +731,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:10">
+    <row r="2" spans="1:10" s="1" customFormat="1">
       <c r="A2" s="5">
-        <v>42107.9311921296</v>
+        <v>42107.931192129603</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -700,13 +754,13 @@
         <v>750</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J7" si="0">I2-H2</f>
+        <f t="shared" ref="J2" si="0">I2-H2</f>
         <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="5">
-        <v>42108.9228009259</v>
+        <v>42108.922800925902</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>13</v>
@@ -733,7 +787,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5">
-        <v>42109.9293634259</v>
+        <v>42109.929363425901</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>16</v>
@@ -745,7 +799,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="3">
-        <v>1.475</v>
+        <v>1.4750000000000001</v>
       </c>
       <c r="H4" s="3">
         <v>500</v>
@@ -760,7 +814,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5">
-        <v>42111.9381944444</v>
+        <v>42111.938194444403</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>19</v>
@@ -787,7 +841,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
-        <v>42112.63125</v>
+        <v>42112.631249999999</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>22</v>
@@ -814,7 +868,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
-        <v>42113.5833333333</v>
+        <v>42113.583333333299</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>25</v>
@@ -841,7 +895,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
-        <v>42113.7951388889</v>
+        <v>42113.795138888898</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>28</v>
@@ -867,7 +921,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5">
-        <v>42114.926087963</v>
+        <v>42114.926087963002</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>31</v>
@@ -891,12 +945,12 @@
       </c>
       <c r="J9" s="8">
         <f>I9-H9</f>
-        <v>306.35</v>
+        <v>306.35000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5">
-        <v>42116.7013888889</v>
+        <v>42116.701388888898</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>34</v>
@@ -954,49 +1008,76 @@
         <v>-500</v>
       </c>
     </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5">
+        <v>42120.924305555556</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="H12" s="3">
+        <v>500</v>
+      </c>
+      <c r="I12" s="3">
+        <v>800</v>
+      </c>
+      <c r="J12" s="11">
+        <f>I12-H12</f>
+        <v>300</v>
+      </c>
+    </row>
     <row r="25" spans="10:10">
       <c r="J25" s="9">
         <f>SUM(J2:J24)</f>
-        <v>-568.65</v>
+        <v>-268.64999999999998</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/bet/林总.xlsx
+++ b/bet/林总.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8370"/>
+    <workbookView windowWidth="20400" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>日期</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>J</t>
     </r>
     <r>
@@ -183,19 +189,22 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>联赛</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>松本山雅FC VS 仙台维嘉泰</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>松本山雅F</t>
     </r>
     <r>
@@ -203,15 +212,19 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>C或平局</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -219,19 +232,35 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-0</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>英甲</t>
+  </si>
+  <si>
+    <t>布拉德福德 VS 巴恩斯利</t>
+  </si>
+  <si>
+    <t>布拉德福德 0</t>
+  </si>
+  <si>
+    <t>1-0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -262,23 +291,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -299,8 +319,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -321,35 +356,33 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -648,7 +681,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -681,11 +713,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -699,7 +732,7 @@
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -731,9 +764,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1">
+    <row r="2" s="1" customFormat="1" spans="1:10">
       <c r="A2" s="5">
-        <v>42107.931192129603</v>
+        <v>42107.9311921296</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -753,14 +786,14 @@
       <c r="I2" s="1">
         <v>750</v>
       </c>
-      <c r="J2" s="8">
-        <f t="shared" ref="J2" si="0">I2-H2</f>
+      <c r="J2" s="9">
+        <f t="shared" ref="J2:J7" si="0">I2-H2</f>
         <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="5">
-        <v>42108.922800925902</v>
+        <v>42108.9228009259</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>13</v>
@@ -787,7 +820,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5">
-        <v>42109.929363425901</v>
+        <v>42109.9293634259</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>16</v>
@@ -799,7 +832,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="3">
-        <v>1.4750000000000001</v>
+        <v>1.475</v>
       </c>
       <c r="H4" s="3">
         <v>500</v>
@@ -814,7 +847,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5">
-        <v>42111.938194444403</v>
+        <v>42111.9381944444</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>19</v>
@@ -834,14 +867,14 @@
       <c r="I5" s="3">
         <v>712.5</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="9">
         <f>I5-H5</f>
         <v>212.5</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5">
-        <v>42112.631249999999</v>
+        <v>42112.63125</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>22</v>
@@ -861,14 +894,14 @@
       <c r="I6" s="3">
         <v>725</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="9">
         <f>I6-H6</f>
         <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5">
-        <v>42113.583333333299</v>
+        <v>42113.5833333333</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>25</v>
@@ -888,14 +921,14 @@
       <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="10">
         <f>I7-H7</f>
         <v>-500</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5">
-        <v>42113.795138888898</v>
+        <v>42113.7951388889</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>28</v>
@@ -921,7 +954,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5">
-        <v>42114.926087963002</v>
+        <v>42114.926087963</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>31</v>
@@ -943,14 +976,14 @@
       <c r="I9" s="3">
         <v>863.35</v>
       </c>
-      <c r="J9" s="8">
-        <f>I9-H9</f>
-        <v>306.35000000000002</v>
+      <c r="J9" s="9">
+        <f t="shared" ref="J9:J12" si="1">I9-H9</f>
+        <v>306.35</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5">
-        <v>42116.701388888898</v>
+        <v>42116.7013888889</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>34</v>
@@ -970,7 +1003,7 @@
       <c r="I10" s="3">
         <v>937.5</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="9">
         <f>I10-H10</f>
         <v>437.5</v>
       </c>
@@ -1003,28 +1036,28 @@
       <c r="I11" s="3">
         <v>0</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="10">
         <f>I11-H11</f>
         <v>-500</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5">
-        <v>42120.924305555556</v>
-      </c>
-      <c r="B12" s="10" t="s">
+        <v>42120.9243055556</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="3">
         <v>2.25</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="3">
@@ -1041,43 +1074,79 @@
         <v>300</v>
       </c>
     </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="H13" s="3">
+        <v>500</v>
+      </c>
+      <c r="I13" s="3">
+        <v>700</v>
+      </c>
+      <c r="J13" s="11">
+        <f>I13-H13</f>
+        <v>200</v>
+      </c>
+    </row>
     <row r="25" spans="10:10">
-      <c r="J25" s="9">
+      <c r="J25" s="10">
         <f>SUM(J2:J24)</f>
-        <v>-268.64999999999998</v>
+        <v>-68.65</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/bet/林总.xlsx
+++ b/bet/林总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>日期</t>
   </si>
@@ -249,6 +249,18 @@
   <si>
     <t>1-0</t>
   </si>
+  <si>
+    <t>俄超</t>
+  </si>
+  <si>
+    <t>罗斯托夫 VS 莫斯科迪纳摩</t>
+  </si>
+  <si>
+    <t>莫斯科迪纳摩 0</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
 </sst>
 </file>
 
@@ -260,7 +272,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -275,24 +287,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -323,19 +323,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -350,28 +350,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -718,7 +718,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -728,12 +728,12 @@
     <col min="3" max="3" width="26.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.875" style="3" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -748,7 +748,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -765,7 +765,7 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:10">
-      <c r="A2" s="5">
+      <c r="A2" s="7">
         <v>42107.9311921296</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -777,6 +777,7 @@
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F2" s="6"/>
       <c r="G2" s="1">
         <v>1.5</v>
       </c>
@@ -786,13 +787,13 @@
       <c r="I2" s="1">
         <v>750</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="10">
         <f t="shared" ref="J2:J7" si="0">I2-H2</f>
         <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="5">
+      <c r="A3" s="7">
         <v>42108.9228009259</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -819,7 +820,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="5">
+      <c r="A4" s="7">
         <v>42109.9293634259</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -846,7 +847,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="5">
+      <c r="A5" s="7">
         <v>42111.9381944444</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -867,13 +868,13 @@
       <c r="I5" s="3">
         <v>712.5</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="10">
         <f>I5-H5</f>
         <v>212.5</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="5">
+      <c r="A6" s="7">
         <v>42112.63125</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -894,13 +895,13 @@
       <c r="I6" s="3">
         <v>725</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="10">
         <f>I6-H6</f>
         <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="5">
+      <c r="A7" s="7">
         <v>42113.5833333333</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -921,13 +922,13 @@
       <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="11">
         <f>I7-H7</f>
         <v>-500</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="5">
+      <c r="A8" s="7">
         <v>42113.7951388889</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -953,20 +954,20 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="5">
+      <c r="A9" s="7">
         <v>42114.926087963</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="3">
         <v>1.55</v>
       </c>
@@ -976,13 +977,13 @@
       <c r="I9" s="3">
         <v>863.35</v>
       </c>
-      <c r="J9" s="9">
-        <f t="shared" ref="J9:J12" si="1">I9-H9</f>
+      <c r="J9" s="10">
+        <f t="shared" ref="J9:J13" si="1">I9-H9</f>
         <v>306.35</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="5">
+      <c r="A10" s="7">
         <v>42116.7013888889</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1003,13 +1004,13 @@
       <c r="I10" s="3">
         <v>937.5</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="10">
         <f>I10-H10</f>
         <v>437.5</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="5">
+      <c r="A11" s="7">
         <v>42119.9243055556</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1024,7 +1025,7 @@
       <c r="E11" s="3">
         <v>2</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G11" s="3">
@@ -1036,13 +1037,13 @@
       <c r="I11" s="3">
         <v>0</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="11">
         <f>I11-H11</f>
         <v>-500</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="5">
+      <c r="A12" s="7">
         <v>42120.9243055556</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1057,7 +1058,7 @@
       <c r="E12" s="3">
         <v>2.25</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="3">
@@ -1069,7 +1070,7 @@
       <c r="I12" s="3">
         <v>800</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="10">
         <f>I12-H12</f>
         <v>300</v>
       </c>
@@ -1087,7 +1088,7 @@
       <c r="E13" s="3">
         <v>2.5</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>48</v>
       </c>
       <c r="G13" s="3">
@@ -1099,13 +1100,42 @@
       <c r="I13" s="3">
         <v>700</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="10">
         <f>I13-H13</f>
         <v>200</v>
       </c>
     </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="H14" s="3">
+        <v>500</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+    </row>
     <row r="25" spans="10:10">
-      <c r="J25" s="10">
+      <c r="J25" s="11">
         <f>SUM(J2:J24)</f>
         <v>-68.65</v>
       </c>

--- a/bet/林总.xlsx
+++ b/bet/林总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>日期</t>
   </si>
@@ -260,6 +260,18 @@
   </si>
   <si>
     <t>2-2</t>
+  </si>
+  <si>
+    <t>克雷泰伊 VS 布雷斯特</t>
+  </si>
+  <si>
+    <t>克雷泰伊或平局</t>
+  </si>
+  <si>
+    <t>萨普斯堡 VS Odd Bk</t>
+  </si>
+  <si>
+    <t>萨普斯堡或平局</t>
   </si>
 </sst>
 </file>
@@ -287,12 +299,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -717,8 +729,8 @@
   <sheetPr/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -787,7 +799,7 @@
       <c r="I2" s="1">
         <v>750</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="11">
         <f t="shared" ref="J2:J7" si="0">I2-H2</f>
         <v>250</v>
       </c>
@@ -868,7 +880,7 @@
       <c r="I5" s="3">
         <v>712.5</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="11">
         <f>I5-H5</f>
         <v>212.5</v>
       </c>
@@ -895,7 +907,7 @@
       <c r="I6" s="3">
         <v>725</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="11">
         <f>I6-H6</f>
         <v>225</v>
       </c>
@@ -922,7 +934,7 @@
       <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <f>I7-H7</f>
         <v>-500</v>
       </c>
@@ -977,7 +989,7 @@
       <c r="I9" s="3">
         <v>863.35</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="11">
         <f t="shared" ref="J9:J13" si="1">I9-H9</f>
         <v>306.35</v>
       </c>
@@ -1004,14 +1016,14 @@
       <c r="I10" s="3">
         <v>937.5</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="11">
         <f>I10-H10</f>
         <v>437.5</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="7">
-        <v>42119.9243055556</v>
+        <v>42118.9243055556</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>37</v>
@@ -1037,14 +1049,14 @@
       <c r="I11" s="3">
         <v>0</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="10">
         <f>I11-H11</f>
         <v>-500</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="7">
-        <v>42120.9243055556</v>
+        <v>42119.4659722222</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>41</v>
@@ -1070,12 +1082,15 @@
       <c r="I12" s="3">
         <v>800</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="11">
         <f>I12-H12</f>
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="1:10">
+      <c r="A13" s="7">
+        <v>42119.9243055556</v>
+      </c>
       <c r="B13" s="3" t="s">
         <v>45</v>
       </c>
@@ -1100,12 +1115,15 @@
       <c r="I13" s="3">
         <v>700</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="11">
         <f>I13-H13</f>
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="1:10">
+      <c r="A14" s="7">
+        <v>42120.9243055556</v>
+      </c>
       <c r="B14" s="3" t="s">
         <v>49</v>
       </c>
@@ -1128,16 +1146,73 @@
         <v>500</v>
       </c>
       <c r="I14" s="3">
+        <v>500</v>
+      </c>
+      <c r="J14" s="10">
+        <f>I14-H14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="10:10">
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="7">
+        <v>42122.9243055556</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1.61</v>
+      </c>
+      <c r="H15" s="3">
+        <v>500</v>
+      </c>
+      <c r="I15" s="3">
+        <v>807.7</v>
+      </c>
+      <c r="J15" s="11">
+        <f>I15-H15</f>
+        <v>307.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="7">
+        <v>42123.9243055556</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="H16" s="3">
+        <v>500</v>
+      </c>
+      <c r="I16" s="3">
+        <v>875</v>
+      </c>
+      <c r="J16" s="11">
+        <f>I16-H16</f>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="25" spans="8:10">
+      <c r="H25" s="10">
+        <f>SUM(H2:H24)</f>
+        <v>7557</v>
+      </c>
+      <c r="I25" s="10">
+        <f>SUM(I2:I24)</f>
+        <v>8171.05</v>
+      </c>
       <c r="J25" s="11">
         <f>SUM(J2:J24)</f>
-        <v>-68.65</v>
+        <v>614.05</v>
       </c>
     </row>
   </sheetData>

--- a/bet/林总.xlsx
+++ b/bet/林总.xlsx
@@ -16,17 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>日期</t>
   </si>
   <si>
-    <t>联赛</t>
-  </si>
-  <si>
-    <t>队伍</t>
-  </si>
-  <si>
     <t>玩法</t>
   </si>
   <si>
@@ -48,90 +42,25 @@
     <t>盈亏</t>
   </si>
   <si>
-    <t>阿甲</t>
-  </si>
-  <si>
-    <t>沙兰迪阿森纳 VS 纽维尔斯</t>
-  </si>
-  <si>
     <t>沙兰迪阿森纳+0.5</t>
   </si>
   <si>
-    <t>英冠</t>
-  </si>
-  <si>
-    <t>布莱顿 VS 赫德斯菲尔德</t>
-  </si>
-  <si>
     <t>布莱顿独赢</t>
   </si>
   <si>
-    <t>南美自由杯</t>
-  </si>
-  <si>
-    <t>阿特拉斯 VS 米内罗竞技</t>
-  </si>
-  <si>
     <t>米内罗竞技+0.5</t>
   </si>
   <si>
-    <t>西甲</t>
-  </si>
-  <si>
-    <t>勒万特 VS 西班牙人</t>
-  </si>
-  <si>
     <t>西班牙人+0.5</t>
   </si>
   <si>
-    <t>J联赛</t>
-  </si>
-  <si>
-    <t>浦和红钻 VS 横滨水手</t>
-  </si>
-  <si>
     <t>浦和红钻 0</t>
   </si>
   <si>
-    <t>澳超</t>
-  </si>
-  <si>
-    <t>珀斯光荣 VS 墨尔本城</t>
-  </si>
-  <si>
     <t>墨尔本城+0.5</t>
   </si>
   <si>
-    <t>法甲</t>
-  </si>
-  <si>
-    <t>里尔 VS 波尔多</t>
-  </si>
-  <si>
     <t>波尔多+0.5</t>
-  </si>
-  <si>
-    <t>荷乙</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">特温特后备 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>VS 阿贾克斯后备</t>
-    </r>
   </si>
   <si>
     <r>
@@ -154,48 +83,13 @@
     </r>
   </si>
   <si>
-    <t>日联杯</t>
-  </si>
-  <si>
-    <t>清水心跳 VS 仙台维加泰</t>
-  </si>
-  <si>
     <t>清水心跳 0</t>
   </si>
   <si>
-    <t>法乙</t>
-  </si>
-  <si>
-    <t>拉瓦尔 VS 阿雅克肖GFCA</t>
-  </si>
-  <si>
     <t>拉瓦尔 +0.5</t>
   </si>
   <si>
     <t>0-2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>J</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>联赛</t>
-    </r>
-  </si>
-  <si>
-    <t>松本山雅FC VS 仙台维嘉泰</t>
   </si>
   <si>
     <r>
@@ -238,40 +132,55 @@
     </r>
   </si>
   <si>
-    <t>英甲</t>
-  </si>
-  <si>
-    <t>布拉德福德 VS 巴恩斯利</t>
-  </si>
-  <si>
     <t>布拉德福德 0</t>
   </si>
   <si>
     <t>1-0</t>
   </si>
   <si>
-    <t>俄超</t>
-  </si>
-  <si>
-    <t>罗斯托夫 VS 莫斯科迪纳摩</t>
-  </si>
-  <si>
     <t>莫斯科迪纳摩 0</t>
   </si>
   <si>
     <t>2-2</t>
   </si>
   <si>
-    <t>克雷泰伊 VS 布雷斯特</t>
-  </si>
-  <si>
     <t>克雷泰伊或平局</t>
   </si>
   <si>
-    <t>萨普斯堡 VS Odd Bk</t>
-  </si>
-  <si>
     <t>萨普斯堡或平局</t>
+  </si>
+  <si>
+    <t>戈登科鲁兹 0</t>
+  </si>
+  <si>
+    <t>休斯顿迪纳摩 0</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>伯恩利 +0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">威灵顿凤凰 0 </t>
+  </si>
+  <si>
+    <t>北京国安 +0.5</t>
+  </si>
+  <si>
+    <t>柏斯波利斯 -1</t>
+  </si>
+  <si>
+    <t>那不勒斯独赢</t>
+  </si>
+  <si>
+    <t>平局或慕尼黑1860</t>
+  </si>
+  <si>
+    <t>平局或福冈黄蜂</t>
+  </si>
+  <si>
+    <t>莱切斯特或平局</t>
   </si>
 </sst>
 </file>
@@ -279,9 +188,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
@@ -299,12 +208,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -351,7 +260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -374,17 +283,20 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -727,24 +639,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="2" max="2" width="17.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="9.375" style="3"/>
+    <col min="8" max="8" width="9" style="3"/>
+    <col min="9" max="9" width="11.5" style="3" customWidth="1"/>
+    <col min="10" max="16382" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -754,13 +668,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -769,451 +683,586 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:10">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="7">
         <v>42107.9311921296</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="6"/>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>500</v>
+      </c>
       <c r="G2" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H2" s="1">
-        <v>500</v>
-      </c>
-      <c r="I2" s="1">
         <v>750</v>
       </c>
-      <c r="J2" s="11">
-        <f t="shared" ref="J2:J7" si="0">I2-H2</f>
+      <c r="H2" s="8">
+        <f t="shared" ref="H2:H7" si="0">G2-F2</f>
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:8">
       <c r="A3" s="7">
         <v>42108.9228009259</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>500</v>
       </c>
       <c r="G3" s="3">
-        <v>1.5</v>
+        <v>500</v>
       </c>
       <c r="H3" s="3">
-        <v>500</v>
-      </c>
-      <c r="I3" s="3">
-        <v>500</v>
-      </c>
-      <c r="J3" s="3">
-        <f>I3-H3</f>
+        <f>G3-F3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:8">
       <c r="A4" s="7">
         <v>42109.9293634259</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.475</v>
+      </c>
+      <c r="F4" s="3">
+        <v>500</v>
       </c>
       <c r="G4" s="3">
-        <v>1.475</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>500</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <f>I4-H4</f>
+        <f>G4-F4</f>
         <v>-500</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:8">
       <c r="A5" s="7">
         <v>42111.9381944444</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.425</v>
+      </c>
+      <c r="F5" s="3">
+        <v>500</v>
       </c>
       <c r="G5" s="3">
-        <v>1.425</v>
-      </c>
-      <c r="H5" s="3">
-        <v>500</v>
-      </c>
-      <c r="I5" s="3">
         <v>712.5</v>
       </c>
-      <c r="J5" s="11">
-        <f>I5-H5</f>
+      <c r="H5" s="8">
+        <f>G5-F5</f>
         <v>212.5</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:8">
       <c r="A6" s="7">
         <v>42112.63125</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.45</v>
+      </c>
+      <c r="F6" s="3">
+        <v>500</v>
       </c>
       <c r="G6" s="3">
-        <v>1.45</v>
-      </c>
-      <c r="H6" s="3">
-        <v>500</v>
-      </c>
-      <c r="I6" s="3">
         <v>725</v>
       </c>
-      <c r="J6" s="11">
-        <f>I6-H6</f>
+      <c r="H6" s="8">
+        <f>G6-F6</f>
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:8">
       <c r="A7" s="7">
         <v>42113.5833333333</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="F7" s="3">
+        <v>500</v>
       </c>
       <c r="G7" s="3">
-        <v>1.55</v>
-      </c>
-      <c r="H7" s="3">
-        <v>500</v>
-      </c>
-      <c r="I7" s="3">
         <v>0</v>
       </c>
-      <c r="J7" s="10">
-        <f>I7-H7</f>
+      <c r="H7" s="9">
+        <f>G7-F7</f>
         <v>-500</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:8">
       <c r="A8" s="7">
         <v>42113.7951388889</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.62</v>
+      </c>
+      <c r="F8" s="3">
+        <v>500</v>
       </c>
       <c r="G8" s="3">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>500</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:8">
       <c r="A9" s="7">
         <v>42114.926087963</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="F9" s="3">
+        <v>557</v>
+      </c>
       <c r="G9" s="3">
-        <v>1.55</v>
-      </c>
-      <c r="H9" s="3">
-        <v>557</v>
-      </c>
-      <c r="I9" s="3">
         <v>863.35</v>
       </c>
-      <c r="J9" s="11">
-        <f t="shared" ref="J9:J13" si="1">I9-H9</f>
+      <c r="H9" s="8">
+        <f t="shared" ref="H9:H23" si="1">G9-F9</f>
         <v>306.35</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:8">
       <c r="A10" s="7">
         <v>42116.7013888889</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1.875</v>
+      </c>
+      <c r="F10" s="3">
+        <v>500</v>
       </c>
       <c r="G10" s="3">
-        <v>1.875</v>
-      </c>
-      <c r="H10" s="3">
-        <v>500</v>
-      </c>
-      <c r="I10" s="3">
         <v>937.5</v>
       </c>
-      <c r="J10" s="11">
-        <f>I10-H10</f>
+      <c r="H10" s="8">
+        <f>G10-F10</f>
         <v>437.5</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:8">
       <c r="A11" s="7">
         <v>42118.9243055556</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E11" s="3">
-        <v>2</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>40</v>
+        <v>1.6</v>
+      </c>
+      <c r="F11" s="3">
+        <v>500</v>
       </c>
       <c r="G11" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="H11" s="3">
-        <v>500</v>
-      </c>
-      <c r="I11" s="3">
         <v>0</v>
       </c>
-      <c r="J11" s="10">
-        <f>I11-H11</f>
+      <c r="H11" s="9">
+        <f>G11-F11</f>
         <v>-500</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:8">
       <c r="A12" s="7">
         <v>42119.4659722222</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>43</v>
+      <c r="B12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="E12" s="3">
-        <v>2.25</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>44</v>
+        <v>1.6</v>
+      </c>
+      <c r="F12" s="3">
+        <v>500</v>
       </c>
       <c r="G12" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="H12" s="3">
-        <v>500</v>
-      </c>
-      <c r="I12" s="3">
         <v>800</v>
       </c>
-      <c r="J12" s="11">
-        <f>I12-H12</f>
+      <c r="H12" s="8">
+        <f>G12-F12</f>
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:8">
       <c r="A13" s="7">
         <v>42119.9243055556</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E13" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>48</v>
+        <v>1.4</v>
+      </c>
+      <c r="F13" s="3">
+        <v>500</v>
       </c>
       <c r="G13" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="H13" s="3">
-        <v>500</v>
-      </c>
-      <c r="I13" s="3">
         <v>700</v>
       </c>
-      <c r="J13" s="11">
-        <f>I13-H13</f>
+      <c r="H13" s="8">
+        <f>G13-F13</f>
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:8">
       <c r="A14" s="7">
         <v>42120.9243055556</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>51</v>
+        <v>23</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="E14" s="3">
-        <v>2.25</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>52</v>
+        <v>1.6</v>
+      </c>
+      <c r="F14" s="3">
+        <v>500</v>
       </c>
       <c r="G14" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="H14" s="3">
-        <v>500</v>
-      </c>
-      <c r="I14" s="3">
-        <v>500</v>
-      </c>
-      <c r="J14" s="10">
-        <f>I14-H14</f>
+        <v>500</v>
+      </c>
+      <c r="H14" s="9">
+        <f>G14-F14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:8">
       <c r="A15" s="7">
         <v>42122.9243055556</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>54</v>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1.61</v>
+      </c>
+      <c r="F15" s="3">
+        <v>500</v>
       </c>
       <c r="G15" s="3">
-        <v>1.61</v>
-      </c>
-      <c r="H15" s="3">
-        <v>500</v>
-      </c>
-      <c r="I15" s="3">
         <v>807.7</v>
       </c>
-      <c r="J15" s="11">
-        <f>I15-H15</f>
+      <c r="H15" s="8">
+        <f>G15-F15</f>
         <v>307.7</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:8">
       <c r="A16" s="7">
         <v>42123.9243055556</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>56</v>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="F16" s="3">
+        <v>500</v>
       </c>
       <c r="G16" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="H16" s="3">
-        <v>500</v>
-      </c>
-      <c r="I16" s="3">
         <v>875</v>
       </c>
-      <c r="J16" s="11">
-        <f>I16-H16</f>
+      <c r="H16" s="8">
+        <f>G16-F16</f>
         <v>375</v>
       </c>
     </row>
-    <row r="25" spans="8:10">
-      <c r="H25" s="10">
-        <f>SUM(H2:H24)</f>
-        <v>7557</v>
-      </c>
-      <c r="I25" s="10">
-        <f>SUM(I2:I24)</f>
-        <v>8171.05</v>
-      </c>
-      <c r="J25" s="11">
-        <f>SUM(J2:J24)</f>
-        <v>614.05</v>
-      </c>
+    <row r="17" spans="1:8">
+      <c r="A17" s="7">
+        <v>42124.9243055556</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>500</v>
+      </c>
+      <c r="G17" s="3">
+        <v>750</v>
+      </c>
+      <c r="H17" s="8">
+        <f>G17-F17</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="7">
+        <v>42126.2777777778</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1.875</v>
+      </c>
+      <c r="F18" s="3">
+        <v>500</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <f>G18-F18</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="7">
+        <v>42126.9027777778</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1.62</v>
+      </c>
+      <c r="F19" s="3">
+        <v>500</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <f>G19-F19</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7">
+        <v>42127.6111111111</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.55</v>
+      </c>
+      <c r="F20" s="3">
+        <v>500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <f>G20-F20</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="7">
+        <v>42129.6729166667</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1.61</v>
+      </c>
+      <c r="F21" s="3">
+        <v>500</v>
+      </c>
+      <c r="G21" s="3">
+        <v>807.7</v>
+      </c>
+      <c r="H21" s="8">
+        <f>G21-F21</f>
+        <v>307.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="12">
+        <v>42130</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1.525</v>
+      </c>
+      <c r="F22" s="3">
+        <v>500</v>
+      </c>
+      <c r="G22" s="3">
+        <v>500</v>
+      </c>
+      <c r="H22" s="8">
+        <f>G22-F22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="12">
+        <v>42131</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="F23" s="3">
+        <v>500</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <f>G23-F23</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="12">
+        <v>42132</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1.57</v>
+      </c>
+      <c r="F24" s="3">
+        <v>500</v>
+      </c>
+      <c r="G24" s="3">
+        <v>785.72</v>
+      </c>
+      <c r="H24" s="8">
+        <f>G24-F24</f>
+        <v>285.72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="12">
+        <v>42133</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="F25" s="3">
+        <v>500</v>
+      </c>
+      <c r="G25" s="3">
+        <v>740</v>
+      </c>
+      <c r="H25" s="8">
+        <f>G25-F25</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="12">
+        <v>42134</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1.48</v>
+      </c>
+      <c r="F26" s="3">
+        <v>500</v>
+      </c>
+      <c r="G26" s="3">
+        <v>740</v>
+      </c>
+      <c r="H26" s="8">
+        <f>G26-F26</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9">
+      <c r="I35" s="3">
+        <f>SUM(F:F)</f>
+        <v>12557</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9">
+      <c r="I36" s="3">
+        <f>SUM(G:G)</f>
+        <v>12494.47</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9">
+      <c r="I37" s="3">
+        <f>SUM(H:H)</f>
+        <v>-62.53</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8">
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bet/林总.xlsx
+++ b/bet/林总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>日期</t>
   </si>
@@ -182,15 +182,27 @@
   <si>
     <t>莱切斯特或平局</t>
   </si>
+  <si>
+    <t>伊维恩 0</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>CSKA莫斯科 0</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
@@ -642,7 +654,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -850,7 +862,7 @@
         <v>863.35</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" ref="H9:H23" si="1">G9-F9</f>
+        <f t="shared" ref="H9:H27" si="1">G9-F9</f>
         <v>306.35</v>
       </c>
     </row>
@@ -1222,7 +1234,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="12">
-        <v>42134</v>
+        <v>42133</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>37</v>
@@ -1241,22 +1253,73 @@
         <v>240</v>
       </c>
     </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="12">
+        <v>42133</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="F27" s="3">
+        <v>500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9">
+        <f>G27-F27</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="12">
+        <v>42134</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F28" s="3">
+        <v>500</v>
+      </c>
+      <c r="G28" s="3">
+        <v>750</v>
+      </c>
+      <c r="H28" s="8">
+        <f>G28-F28</f>
+        <v>250</v>
+      </c>
+    </row>
     <row r="35" spans="9:9">
       <c r="I35" s="3">
         <f>SUM(F:F)</f>
-        <v>12557</v>
+        <v>13557</v>
       </c>
     </row>
     <row r="36" spans="9:9">
       <c r="I36" s="3">
         <f>SUM(G:G)</f>
-        <v>12494.47</v>
+        <v>13244.47</v>
       </c>
     </row>
     <row r="37" spans="9:9">
       <c r="I37" s="3">
         <f>SUM(H:H)</f>
-        <v>-62.53</v>
+        <v>-312.53</v>
       </c>
     </row>
     <row r="38" spans="6:8">

--- a/bet/林总.xlsx
+++ b/bet/林总.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>日期</t>
   </si>
@@ -68,6 +68,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>特温特后备队+</t>
@@ -77,6 +78,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0.5</t>
@@ -97,6 +99,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>松本山雅F</t>
@@ -106,6 +109,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>C或平局</t>
@@ -117,6 +121,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -126,6 +131,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-0</t>
@@ -194,18 +200,16 @@
   <si>
     <t>1-3</t>
   </si>
+  <si>
+    <t>平局或图拉阿仙奴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -216,22 +220,33 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -252,27 +267,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -310,15 +310,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -617,6 +622,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -649,12 +655,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:I38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XFB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -670,7 +675,7 @@
     <col min="10" max="16382" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -696,9 +701,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="7">
-        <v>42107.9311921296</v>
+        <v>42107.931192129603</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -714,13 +719,13 @@
         <v>750</v>
       </c>
       <c r="H2" s="8">
-        <f t="shared" ref="H2:H7" si="0">G2-F2</f>
+        <f t="shared" ref="H2" si="0">G2-F2</f>
         <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="7">
-        <v>42108.9228009259</v>
+        <v>42108.922800925902</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -741,13 +746,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7">
-        <v>42109.9293634259</v>
+        <v>42109.929363425901</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="3">
-        <v>1.475</v>
+        <v>1.4750000000000001</v>
       </c>
       <c r="F4" s="3">
         <v>500</v>
@@ -762,7 +767,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="7">
-        <v>42111.9381944444</v>
+        <v>42111.938194444403</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -783,7 +788,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="7">
-        <v>42112.63125</v>
+        <v>42112.631249999999</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -804,7 +809,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="7">
-        <v>42113.5833333333</v>
+        <v>42113.583333333299</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -825,7 +830,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7">
-        <v>42113.7951388889</v>
+        <v>42113.795138888898</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>14</v>
@@ -845,7 +850,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="7">
-        <v>42114.926087963</v>
+        <v>42114.926087963002</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>15</v>
@@ -862,13 +867,13 @@
         <v>863.35</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" ref="H9:H27" si="1">G9-F9</f>
-        <v>306.35</v>
+        <f t="shared" ref="H9" si="1">G9-F9</f>
+        <v>306.35000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="7">
-        <v>42116.7013888889</v>
+        <v>42116.701388888898</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>16</v>
@@ -883,7 +888,7 @@
         <v>937.5</v>
       </c>
       <c r="H10" s="8">
-        <f>G10-F10</f>
+        <f t="shared" ref="H10:H29" si="2">G10-F10</f>
         <v>437.5</v>
       </c>
     </row>
@@ -910,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="H11" s="9">
-        <f>G11-F11</f>
+        <f t="shared" si="2"/>
         <v>-500</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="7">
-        <v>42119.4659722222</v>
+        <v>42119.465972222199</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>19</v>
@@ -937,7 +942,7 @@
         <v>800</v>
       </c>
       <c r="H12" s="8">
-        <f>G12-F12</f>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
     </row>
@@ -964,7 +969,7 @@
         <v>700</v>
       </c>
       <c r="H13" s="8">
-        <f>G13-F13</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -991,7 +996,7 @@
         <v>500</v>
       </c>
       <c r="H14" s="9">
-        <f>G14-F14</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1012,8 +1017,8 @@
         <v>807.7</v>
       </c>
       <c r="H15" s="8">
-        <f>G15-F15</f>
-        <v>307.7</v>
+        <f t="shared" si="2"/>
+        <v>307.70000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1033,7 +1038,7 @@
         <v>875</v>
       </c>
       <c r="H16" s="8">
-        <f>G16-F16</f>
+        <f t="shared" si="2"/>
         <v>375</v>
       </c>
     </row>
@@ -1054,13 +1059,13 @@
         <v>750</v>
       </c>
       <c r="H17" s="8">
-        <f>G17-F17</f>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7">
-        <v>42126.2777777778</v>
+        <v>42126.277777777803</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>28</v>
@@ -1081,13 +1086,13 @@
         <v>0</v>
       </c>
       <c r="H18" s="9">
-        <f>G18-F18</f>
+        <f t="shared" si="2"/>
         <v>-500</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="7">
-        <v>42126.9027777778</v>
+        <v>42126.902777777803</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>30</v>
@@ -1102,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="H19" s="9">
-        <f>G19-F19</f>
+        <f t="shared" si="2"/>
         <v>-500</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="7">
-        <v>42127.6111111111</v>
+        <v>42127.611111111102</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>31</v>
@@ -1123,13 +1128,13 @@
         <v>0</v>
       </c>
       <c r="H20" s="9">
-        <f>G20-F20</f>
+        <f t="shared" si="2"/>
         <v>-500</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="7">
-        <v>42129.6729166667</v>
+        <v>42129.672916666699</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>32</v>
@@ -1144,8 +1149,8 @@
         <v>807.7</v>
       </c>
       <c r="H21" s="8">
-        <f>G21-F21</f>
-        <v>307.7</v>
+        <f t="shared" si="2"/>
+        <v>307.70000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1156,7 +1161,7 @@
         <v>33</v>
       </c>
       <c r="E22" s="3">
-        <v>1.525</v>
+        <v>1.5249999999999999</v>
       </c>
       <c r="F22" s="3">
         <v>500</v>
@@ -1165,7 +1170,7 @@
         <v>500</v>
       </c>
       <c r="H22" s="8">
-        <f>G22-F22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1186,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="9">
-        <f>G23-F23</f>
+        <f t="shared" si="2"/>
         <v>-500</v>
       </c>
     </row>
@@ -1207,8 +1212,8 @@
         <v>785.72</v>
       </c>
       <c r="H24" s="8">
-        <f>G24-F24</f>
-        <v>285.72</v>
+        <f t="shared" si="2"/>
+        <v>285.72000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1228,7 +1233,7 @@
         <v>740</v>
       </c>
       <c r="H25" s="8">
-        <f>G25-F25</f>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
     </row>
@@ -1249,7 +1254,7 @@
         <v>740</v>
       </c>
       <c r="H26" s="8">
-        <f>G26-F26</f>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
     </row>
@@ -1276,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="9">
-        <f>G27-F27</f>
+        <f t="shared" si="2"/>
         <v>-500</v>
       </c>
     </row>
@@ -1300,70 +1305,85 @@
         <v>750</v>
       </c>
       <c r="H28" s="8">
-        <f>G28-F28</f>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="9:9">
+    <row r="29" spans="1:8">
+      <c r="A29" s="12">
+        <v>42135</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1.61</v>
+      </c>
+      <c r="F29" s="3">
+        <v>500</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="2"/>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9">
       <c r="I35" s="3">
         <f>SUM(F:F)</f>
-        <v>13557</v>
-      </c>
-    </row>
-    <row r="36" spans="9:9">
+        <v>14057</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9">
       <c r="I36" s="3">
         <f>SUM(G:G)</f>
         <v>13244.47</v>
       </c>
     </row>
-    <row r="37" spans="9:9">
+    <row r="37" spans="6:9">
       <c r="I37" s="3">
         <f>SUM(H:H)</f>
-        <v>-312.53</v>
-      </c>
-    </row>
-    <row r="38" spans="6:8">
+        <v>-812.52999999999986</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9">
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/bet/林总.xlsx
+++ b/bet/林总.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8370"/>
+    <workbookView windowWidth="20400" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>日期</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>盈亏</t>
+  </si>
+  <si>
+    <t>总投入</t>
+  </si>
+  <si>
+    <t>总奖金</t>
+  </si>
+  <si>
+    <t>总盈亏</t>
   </si>
   <si>
     <t>沙兰迪阿森纳+0.5</t>
@@ -68,7 +77,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>特温特后备队+</t>
@@ -78,7 +86,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0.5</t>
@@ -99,7 +106,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>松本山雅F</t>
@@ -109,7 +115,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>C或平局</t>
@@ -121,7 +126,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -131,7 +135,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>-0</t>
@@ -202,13 +205,18 @@
   </si>
   <si>
     <t>平局或图拉阿仙奴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -220,33 +228,28 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -267,8 +270,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -310,20 +328,18 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -622,7 +638,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -655,11 +670,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFB38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -672,10 +688,11 @@
     <col min="7" max="7" width="9.375" style="3"/>
     <col min="8" max="8" width="9" style="3"/>
     <col min="9" max="9" width="11.5" style="3" customWidth="1"/>
-    <col min="10" max="16382" width="9" style="3"/>
+    <col min="10" max="10" width="9.375" style="3"/>
+    <col min="11" max="16382" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -700,13 +717,22 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="7">
-        <v>42107.931192129603</v>
+        <v>42107.9311921296</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="1">
@@ -719,16 +745,28 @@
         <v>750</v>
       </c>
       <c r="H2" s="8">
-        <f t="shared" ref="H2" si="0">G2-F2</f>
+        <f t="shared" ref="H2:H7" si="0">G2-F2</f>
         <v>250</v>
+      </c>
+      <c r="I2" s="1">
+        <f>SUM(F:F)</f>
+        <v>14057</v>
+      </c>
+      <c r="J2" s="1">
+        <f>SUM(G:G)</f>
+        <v>13244.47</v>
+      </c>
+      <c r="K2" s="1">
+        <f>SUM(H:H)</f>
+        <v>-812.53</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="7">
-        <v>42108.922800925902</v>
+        <v>42108.9228009259</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3">
         <v>1.5</v>
@@ -746,13 +784,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7">
-        <v>42109.929363425901</v>
+        <v>42109.9293634259</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3">
-        <v>1.4750000000000001</v>
+        <v>1.475</v>
       </c>
       <c r="F4" s="3">
         <v>500</v>
@@ -767,10 +805,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="7">
-        <v>42111.938194444403</v>
+        <v>42111.9381944444</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3">
         <v>1.425</v>
@@ -788,10 +826,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="7">
-        <v>42112.631249999999</v>
+        <v>42112.63125</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3">
         <v>1.45</v>
@@ -809,10 +847,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="7">
-        <v>42113.583333333299</v>
+        <v>42113.5833333333</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3">
         <v>1.55</v>
@@ -830,10 +868,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7">
-        <v>42113.795138888898</v>
+        <v>42113.7951388889</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E8" s="3">
         <v>1.62</v>
@@ -850,10 +888,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="7">
-        <v>42114.926087963002</v>
+        <v>42114.926087963</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
@@ -868,15 +906,15 @@
       </c>
       <c r="H9" s="8">
         <f t="shared" ref="H9" si="1">G9-F9</f>
-        <v>306.35000000000002</v>
+        <v>306.35</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="7">
-        <v>42116.701388888898</v>
+        <v>42116.7013888889</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E10" s="3">
         <v>1.875</v>
@@ -897,13 +935,13 @@
         <v>42118.9243055556</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E11" s="3">
         <v>1.6</v>
@@ -915,22 +953,22 @@
         <v>0</v>
       </c>
       <c r="H11" s="9">
-        <f t="shared" si="2"/>
+        <f>G11-F11</f>
         <v>-500</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="7">
-        <v>42119.465972222199</v>
+        <v>42119.4659722222</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3">
         <v>2.25</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12" s="3">
         <v>1.6</v>
@@ -942,7 +980,7 @@
         <v>800</v>
       </c>
       <c r="H12" s="8">
-        <f t="shared" si="2"/>
+        <f>G12-F12</f>
         <v>300</v>
       </c>
     </row>
@@ -951,13 +989,13 @@
         <v>42119.9243055556</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3">
         <v>2.5</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13" s="3">
         <v>1.4</v>
@@ -969,7 +1007,7 @@
         <v>700</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" si="2"/>
+        <f>G13-F13</f>
         <v>200</v>
       </c>
     </row>
@@ -978,13 +1016,13 @@
         <v>42120.9243055556</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3">
         <v>2.25</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E14" s="3">
         <v>1.6</v>
@@ -996,7 +1034,7 @@
         <v>500</v>
       </c>
       <c r="H14" s="9">
-        <f t="shared" si="2"/>
+        <f>G14-F14</f>
         <v>0</v>
       </c>
     </row>
@@ -1005,7 +1043,7 @@
         <v>42122.9243055556</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E15" s="3">
         <v>1.61</v>
@@ -1017,8 +1055,8 @@
         <v>807.7</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="2"/>
-        <v>307.70000000000005</v>
+        <f>G15-F15</f>
+        <v>307.7</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1026,7 +1064,7 @@
         <v>42123.9243055556</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E16" s="3">
         <v>1.75</v>
@@ -1038,7 +1076,7 @@
         <v>875</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" si="2"/>
+        <f>G16-F16</f>
         <v>375</v>
       </c>
     </row>
@@ -1047,7 +1085,7 @@
         <v>42124.9243055556</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E17" s="3">
         <v>1.5</v>
@@ -1059,22 +1097,22 @@
         <v>750</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="2"/>
+        <f>G17-F17</f>
         <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="7">
-        <v>42126.277777777803</v>
+        <v>42126.2777777778</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3">
         <v>2.25</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E18" s="3">
         <v>1.875</v>
@@ -1086,16 +1124,16 @@
         <v>0</v>
       </c>
       <c r="H18" s="9">
-        <f t="shared" si="2"/>
+        <f>G18-F18</f>
         <v>-500</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="7">
-        <v>42126.902777777803</v>
+        <v>42126.9027777778</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E19" s="3">
         <v>1.62</v>
@@ -1107,16 +1145,16 @@
         <v>0</v>
       </c>
       <c r="H19" s="9">
-        <f t="shared" si="2"/>
+        <f>G19-F19</f>
         <v>-500</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="7">
-        <v>42127.611111111102</v>
+        <v>42127.6111111111</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E20" s="3">
         <v>1.55</v>
@@ -1128,16 +1166,16 @@
         <v>0</v>
       </c>
       <c r="H20" s="9">
-        <f t="shared" si="2"/>
+        <f>G20-F20</f>
         <v>-500</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="7">
-        <v>42129.672916666699</v>
+        <v>42129.6729166667</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E21" s="3">
         <v>1.61</v>
@@ -1149,8 +1187,8 @@
         <v>807.7</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" si="2"/>
-        <v>307.70000000000005</v>
+        <f>G21-F21</f>
+        <v>307.7</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1158,10 +1196,10 @@
         <v>42130</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E22" s="3">
-        <v>1.5249999999999999</v>
+        <v>1.525</v>
       </c>
       <c r="F22" s="3">
         <v>500</v>
@@ -1170,7 +1208,7 @@
         <v>500</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" si="2"/>
+        <f>G22-F22</f>
         <v>0</v>
       </c>
     </row>
@@ -1179,7 +1217,7 @@
         <v>42131</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E23" s="3">
         <v>1.4</v>
@@ -1191,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="9">
-        <f t="shared" si="2"/>
+        <f>G23-F23</f>
         <v>-500</v>
       </c>
     </row>
@@ -1200,7 +1238,7 @@
         <v>42132</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E24" s="3">
         <v>1.57</v>
@@ -1212,8 +1250,8 @@
         <v>785.72</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="2"/>
-        <v>285.72000000000003</v>
+        <f>G24-F24</f>
+        <v>285.72</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1221,7 +1259,7 @@
         <v>42133</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E25" s="3">
         <v>1.48</v>
@@ -1233,7 +1271,7 @@
         <v>740</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="2"/>
+        <f>G25-F25</f>
         <v>240</v>
       </c>
     </row>
@@ -1242,7 +1280,7 @@
         <v>42133</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E26" s="3">
         <v>1.48</v>
@@ -1254,7 +1292,7 @@
         <v>740</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" si="2"/>
+        <f>G26-F26</f>
         <v>240</v>
       </c>
     </row>
@@ -1263,13 +1301,13 @@
         <v>42133</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C27" s="3">
         <v>2.25</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E27" s="3">
         <v>1.6</v>
@@ -1281,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="9">
-        <f t="shared" si="2"/>
+        <f>G27-F27</f>
         <v>-500</v>
       </c>
     </row>
@@ -1290,10 +1328,10 @@
         <v>42134</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E28" s="3">
         <v>1.5</v>
@@ -1305,7 +1343,7 @@
         <v>750</v>
       </c>
       <c r="H28" s="8">
-        <f t="shared" si="2"/>
+        <f>G28-F28</f>
         <v>250</v>
       </c>
     </row>
@@ -1314,7 +1352,7 @@
         <v>42135</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E29" s="3">
         <v>1.61</v>
@@ -1326,64 +1364,52 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="2"/>
+        <f>G29-F29</f>
         <v>-500</v>
       </c>
     </row>
-    <row r="35" spans="6:9">
-      <c r="I35" s="3">
-        <f>SUM(F:F)</f>
-        <v>14057</v>
-      </c>
-    </row>
-    <row r="36" spans="6:9">
-      <c r="I36" s="3">
-        <f>SUM(G:G)</f>
-        <v>13244.47</v>
-      </c>
-    </row>
-    <row r="37" spans="6:9">
-      <c r="I37" s="3">
-        <f>SUM(H:H)</f>
-        <v>-812.52999999999986</v>
-      </c>
-    </row>
-    <row r="38" spans="6:9">
+    <row r="38" spans="6:8">
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/bet/林总.xlsx
+++ b/bet/林总.xlsx
@@ -201,10 +201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -645,8 +645,8 @@
   <sheetPr/>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -886,7 +886,7 @@
         <v>937.5</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" ref="F10:F38" si="3">E10-D10</f>
+        <f t="shared" ref="F10:F40" si="3">E10-D10</f>
         <v>437.5</v>
       </c>
     </row>

--- a/bet/林总.xlsx
+++ b/bet/林总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49">
   <si>
     <t>日期</t>
   </si>
@@ -195,16 +195,19 @@
   <si>
     <t>FC横滨不败</t>
   </si>
+  <si>
+    <t>哈马比不败</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -643,10 +646,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -712,7 +715,7 @@
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:I2" si="1">SUM(D:D)</f>
-        <v>19557</v>
+        <v>20057</v>
       </c>
       <c r="H2" s="1">
         <f>SUM(E:E)</f>
@@ -720,7 +723,7 @@
       </c>
       <c r="I2" s="6">
         <f>SUM(F:F)</f>
-        <v>416.01</v>
+        <v>-83.99</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1518,6 +1521,27 @@
       <c r="F40" s="6">
         <f>E40-D40</f>
         <v>333.34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="9">
+        <v>42149</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7">
+        <f>E41-D41</f>
+        <v>-500</v>
       </c>
     </row>
   </sheetData>
